--- a/Stories/MissingSheep.xlsx
+++ b/Stories/MissingSheep.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\DECO3801-Synergistiscs\Stories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CDB513-9A6F-451A-8C3E-EAB615FA1AEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E1E35E-758C-488D-8C72-0FB3B487F98B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
   <si>
     <t>MILITARY</t>
   </si>
@@ -296,6 +296,36 @@
   </si>
   <si>
     <t>FARM</t>
+  </si>
+  <si>
+    <t>EVENT SUMMARY HEADER</t>
+  </si>
+  <si>
+    <t>ACTION 1 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 2 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 3 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 4 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>While you were focused on handling these minor affairs in your Kingdom, the disease that is currently affecting the neighbouring Kingdoms have starting to take effect within your own Kingdom.</t>
+  </si>
+  <si>
+    <t>Having to allocate military personnel to such matters meant that you were lacking manpower to support the efforts in trying to maintain and contain the disease.</t>
+  </si>
+  <si>
+    <t>Your decision to ignore this issue had caused it to escalate into riots and fighting between these farmers. This had also further accelerated the spread of the disease within the Kingdom.</t>
+  </si>
+  <si>
+    <t>By giving money to these farmers to quell the issue, you managed to settle this issue for now. However, it came at a cost of the Kingdom's treasury.</t>
+  </si>
+  <si>
+    <t>Although it had sparked some concerns with the villagers, this was a good move as you managed to get rid the source of this issue. This also meant that you had more time to focus on the disease spreading within the city.</t>
   </si>
 </sst>
 </file>
@@ -478,69 +508,69 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,427 +852,532 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="b">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" ht="256.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:13" ht="248.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" ht="199.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" ht="193.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" ht="213.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" ht="207" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" ht="213.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" ht="207" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" ht="242.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" ht="248.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="6" t="s">
         <v>88</v>
       </c>
     </row>
+    <row r="15" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="18">
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="B6:M6"/>
@@ -1251,11 +1386,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/MissingSheep.xlsx
+++ b/Stories/MissingSheep.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E1E35E-758C-488D-8C72-0FB3B487F98B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23257" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,33 +78,15 @@
     <t>Farmers are reporting their sheep stolen</t>
   </si>
   <si>
-    <t>In the kingdom over the past few weeks, over 2 sheep have been stolen according to one farmer. Sheep are an important livestock in the kingom accounting for over 80% of the kingoms food source.</t>
-  </si>
-  <si>
     <t>ADVISOR OPINION</t>
   </si>
   <si>
-    <t>There have been some cases of robbery throughout the kingdom over the years</t>
-  </si>
-  <si>
-    <t>I don’t trust farmers, they are lazy and refuse to protect our kingdom.</t>
-  </si>
-  <si>
-    <t>Our research shows that there has been an abundance of foxes breeding this year</t>
-  </si>
-  <si>
-    <t>This is prime fox season, however I heard the same thing happened in the next village over earlier this year.</t>
-  </si>
-  <si>
     <t>We must give the farmers a monetary supplement while they deal with this issue.</t>
   </si>
   <si>
     <t>Farmers have reported 6 missing sheep from the West Region and 15 from the East. I didn't know the East had that many sheep.</t>
   </si>
   <si>
-    <t xml:space="preserve">This incident can be treated as an isolated case as it does not inflict heavy ecomonic losses yet. </t>
-  </si>
-  <si>
     <t>I did not receive any actual damage report from the farmers yet.</t>
   </si>
   <si>
@@ -120,18 +96,12 @@
     <t>I need to gather the witnesses and investigate this incident.</t>
   </si>
   <si>
-    <t>I could visit the neighbouring Kingdoms to see if there is any leads to this incident.</t>
-  </si>
-  <si>
     <t>I believe other officers are more capable to handle this incident.</t>
   </si>
   <si>
     <t>OUTCOME</t>
   </si>
   <si>
-    <t>A war has started between the farmers on the East and West of the Kingdom, with both sides accusing the other of stealing all of their sheep. Things are starting to get violent and the villagers are frightened to go outside.</t>
-  </si>
-  <si>
     <t>ACTION 1</t>
   </si>
   <si>
@@ -150,39 +120,24 @@
     <t>I don’t mind as long as they stay away from me.</t>
   </si>
   <si>
-    <t>This military interruptions in the village will cause the crop yield to drop this year!</t>
-  </si>
-  <si>
     <t>Reports from previous interventions showed this only made the argument worse.</t>
   </si>
   <si>
     <t>The soldiers are valuable assets and should be reserved for more significant affairs.</t>
   </si>
   <si>
-    <t>This may upset the ecomonic balance of the lower class.</t>
-  </si>
-  <si>
     <t>A partial analysis has stated that the villagers may join in the fight to defend themselves.</t>
   </si>
   <si>
     <t>The soldiers may seize this opportunity to exert a greater influence over the people.</t>
   </si>
   <si>
-    <t xml:space="preserve">We should say this is a military training exercise to avoid attentions from neighbouring Kingdoms </t>
-  </si>
-  <si>
-    <t>This may cause a bad impression for other neighbouring Kingdoms.</t>
-  </si>
-  <si>
     <t>ACTION 2</t>
   </si>
   <si>
     <t>Leave it be, it will figure itself out.</t>
   </si>
   <si>
-    <t>There is a possibility things will escalate to violence</t>
-  </si>
-  <si>
     <t>I think it will get out of control. We must intervene at once.</t>
   </si>
   <si>
@@ -195,36 +150,12 @@
     <t>I'm sure this is just a misunderstanding and will pass.</t>
   </si>
   <si>
-    <t>The Kingdom will eventually suffer from food shortage if this dispute is not resolved.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This may gives an advantage for the farmers of the other regions to increase their wealth. </t>
-  </si>
-  <si>
-    <t>I believe the fight will escalate across other regions of the Kingdom.</t>
-  </si>
-  <si>
     <t>I do not think the farmers are rational to handle this situation!</t>
   </si>
   <si>
-    <t>The neighbouring Kingdoms could use this dispute as an excuse to questioned the Kingdom capabilities.</t>
-  </si>
-  <si>
-    <t>It could be set as an example if the farmers could resolved this dispute between themselves.</t>
-  </si>
-  <si>
     <t>ACTION 3</t>
   </si>
   <si>
-    <t>Give them money, that fixes everything.</t>
-  </si>
-  <si>
-    <t>The villagers aren't good with money, if they were they would be lords.</t>
-  </si>
-  <si>
-    <t>This is not a good idea, they will just spend it straight away on booze.</t>
-  </si>
-  <si>
     <t>There is a risk the farmers will not use the money responsibly</t>
   </si>
   <si>
@@ -237,102 +168,165 @@
     <t>We will likely recover the food loss, and we can hope the farmers will not hold a grudge.</t>
   </si>
   <si>
-    <t>This may solve the dispute between the farmers but reduces the Kingdom capital assets.</t>
-  </si>
-  <si>
     <t>Some farmers will surely take advantage of this dispute.</t>
   </si>
   <si>
-    <t>The neighbouring Kingdoms may plan something if they know it.</t>
-  </si>
-  <si>
     <t>I believe some farmers may take the money and flee to other Kingdoms.</t>
   </si>
   <si>
-    <t xml:space="preserve">Other neighbouring Kingdoms may think that we always uses money to solve everything. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am more wary of how our people outside the Kingdom would think about us. </t>
-  </si>
-  <si>
     <t>ACTION 4</t>
   </si>
   <si>
     <t>Put the farmer causing the problem in jail.</t>
   </si>
   <si>
-    <t>We may be able to stop violent outbreaks if we can identify the leadership</t>
-  </si>
-  <si>
     <t>This is a good idea. I was looking forward to trying out my new sword though.</t>
   </si>
   <si>
-    <t>My colleagues and I believe this will minimise the likelihood of future conflict</t>
-  </si>
-  <si>
     <t>Yes and we should also punish the other farmers involved with a tax.</t>
   </si>
   <si>
     <t>From reports, it is just one farmer starting the rumour and making all farmers look bad.</t>
   </si>
   <si>
-    <t xml:space="preserve">Provide free food and shelters for these prisoners will only be spending more of the Kingdom's money. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farmers are important providers. They should be reeducate to be productive instead of imprisoning them.
+    <t>FARM</t>
+  </si>
+  <si>
+    <t>EVENT SUMMARY HEADER</t>
+  </si>
+  <si>
+    <t>ACTION 1 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 2 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 3 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 4 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>While you were focused on handling these minor affairs in your Kingdom, the disease that is currently affecting the neighbouring Kingdoms have starting to take effect within your own Kingdom.</t>
+  </si>
+  <si>
+    <t>Having to allocate military personnel to such matters meant that you were lacking manpower to support the efforts in trying to maintain and contain the disease.</t>
+  </si>
+  <si>
+    <t>Your decision to ignore this issue had caused it to escalate into riots and fighting between these farmers. This had also further accelerated the spread of the disease within the Kingdom.</t>
+  </si>
+  <si>
+    <t>By giving money to these farmers to quell the issue, you managed to settle this issue for now. However, it came at a cost of the Kingdom's treasury.</t>
+  </si>
+  <si>
+    <t>Although it had sparked some concerns with the villagers, this was a good move as you managed to get rid the source of this issue. This also meant that you had more time to focus on the disease spreading within the city.</t>
+  </si>
+  <si>
+    <t>In the kingdom over the past few weeks, over 2 sheep have been stolen according to one farmer. Sheep are an important livestock in the kingdom accounting for over 80% of the Kingdoms food source.</t>
+  </si>
+  <si>
+    <t>There have been some cases of robbery throughout the kingdom over the years.</t>
+  </si>
+  <si>
+    <t>I don’t trust farmers; they are lazy and refuse to protect our kingdom.</t>
+  </si>
+  <si>
+    <t>Our research shows that there has been an abundance of fox breeding this year.</t>
+  </si>
+  <si>
+    <t>This is prime fox season. I heard the same thing happened in the next village over earlier this year.</t>
+  </si>
+  <si>
+    <t>This incident can be treated as an isolated case as it does not inflict heavy economic losses yet.</t>
+  </si>
+  <si>
+    <t>I could visit the neighbouring kingdoms to see if there are any leads to this incident.</t>
+  </si>
+  <si>
+    <t>A war has started between the farmers on the East and West of the kingdom, with both sides accusing the other of stealing all of their sheep. Things are starting to get violent and the villagers are frightened to go outside.</t>
+  </si>
+  <si>
+    <t>These military interruptions in the village will cause the crop yield to drop this year!</t>
+  </si>
+  <si>
+    <t>This may upset the economic balance of the lower class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We should say this is a military training exercise to avoid attentions from neighbouring kingdoms. </t>
+  </si>
+  <si>
+    <t>This may cause a bad impression for other neighbouring kingdoms.</t>
+  </si>
+  <si>
+    <t>There is a possibility things will escalate to violence.</t>
+  </si>
+  <si>
+    <t>The kingdom will eventually suffer from food shortage if this dispute is not resolved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This may give an advantage for the farmers of the other regions to increase their wealth. </t>
+  </si>
+  <si>
+    <t>I believe the fight will escalate across other regions of the kingdom.</t>
+  </si>
+  <si>
+    <t>The neighbouring kingdoms could use this dispute as an excuse to question the Kingdom capabilities.</t>
+  </si>
+  <si>
+    <t>It could be set as an example if the farmers could resolve this dispute between themselves.</t>
+  </si>
+  <si>
+    <t>Give them money. Money fixes everything.</t>
+  </si>
+  <si>
+    <t>The villagers aren't good with money; if they were they would be lords.</t>
+  </si>
+  <si>
+    <t>This is not a good idea; they will just spend it straight away on booze.</t>
+  </si>
+  <si>
+    <t>This may solve the dispute between the farmers but reduces the kingdom capital assets.</t>
+  </si>
+  <si>
+    <t>The neighbouring kingdoms may plan something if they know it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other neighbouring kingdoms may think that we always use money to solve everything. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am more wary of how our people outside the kingdom would think about us. </t>
+  </si>
+  <si>
+    <t>We may be able to stop violent outbreaks if we can identify the leadership.</t>
+  </si>
+  <si>
+    <t>My colleagues and I believe this will minimise the likelihood of future conflict.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide free food and shelters for these prisoners will only be spending more of the kingdom's money. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farmers are important providers. They should re-educate to be productive instead of imprisoning them.
 </t>
   </si>
   <si>
-    <t>Other farmers may revolt against the Kingdom if we put them behind the bars without concrete evidences.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The witnesses report could be served as a corroborative evidence to imprison the troublemakers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Our allied Kingdoms would never agree to an action such as this! </t>
-  </si>
-  <si>
-    <t>I believe other neighbouring Kingdoms does it this way as well.</t>
-  </si>
-  <si>
-    <t>FARM</t>
-  </si>
-  <si>
-    <t>EVENT SUMMARY HEADER</t>
-  </si>
-  <si>
-    <t>ACTION 1 EVENT SUMMARY</t>
-  </si>
-  <si>
-    <t>ACTION 2 EVENT SUMMARY</t>
-  </si>
-  <si>
-    <t>ACTION 3 EVENT SUMMARY</t>
-  </si>
-  <si>
-    <t>ACTION 4 EVENT SUMMARY</t>
-  </si>
-  <si>
-    <t>While you were focused on handling these minor affairs in your Kingdom, the disease that is currently affecting the neighbouring Kingdoms have starting to take effect within your own Kingdom.</t>
-  </si>
-  <si>
-    <t>Having to allocate military personnel to such matters meant that you were lacking manpower to support the efforts in trying to maintain and contain the disease.</t>
-  </si>
-  <si>
-    <t>Your decision to ignore this issue had caused it to escalate into riots and fighting between these farmers. This had also further accelerated the spread of the disease within the Kingdom.</t>
-  </si>
-  <si>
-    <t>By giving money to these farmers to quell the issue, you managed to settle this issue for now. However, it came at a cost of the Kingdom's treasury.</t>
-  </si>
-  <si>
-    <t>Although it had sparked some concerns with the villagers, this was a good move as you managed to get rid the source of this issue. This also meant that you had more time to focus on the disease spreading within the city.</t>
+    <t>Other farmers may revolt against the kingdom if we put them behind the bars without concrete evidences.</t>
+  </si>
+  <si>
+    <t>The witnesses report could be served as a corroborative evidence to imprison the troublemakers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our allied kingdoms would never agree to an action such as this! </t>
+  </si>
+  <si>
+    <t>I believe other neighbouring kingdoms do it this way as well.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +369,25 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -506,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -548,33 +561,93 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{9381863A-C317-4C6C-B06E-CE65C1ABADB5}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -844,57 +917,57 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="21" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="21" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="17"/>
-    </row>
-    <row r="2" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="M1" s="23"/>
+    </row>
+    <row r="2" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -933,350 +1006,350 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="29"/>
+    </row>
+    <row r="5" spans="1:13" ht="256.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
-    </row>
-    <row r="5" spans="1:13" ht="248.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="H5" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="L5" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="B6" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="B7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="36"/>
+    </row>
+    <row r="8" spans="1:13" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="F8" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="H8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="I8" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:13" ht="193.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="L8" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="B9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="38"/>
+    </row>
+    <row r="10" spans="1:13" ht="214" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="E10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="L10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="B11" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="41"/>
+    </row>
+    <row r="12" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="E12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="F12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="G12" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="H12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="J12" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="1:13" ht="207" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="L12" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="B13" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="41"/>
+    </row>
+    <row r="14" spans="1:13" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="D14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="H14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="B15" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="1:13" ht="207" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14" spans="1:13" ht="248.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>95</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -1290,12 +1363,12 @@
       <c r="L15" s="16"/>
       <c r="M15" s="17"/>
     </row>
-    <row r="16" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="41.45" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>96</v>
+        <v>58</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1309,12 +1382,12 @@
       <c r="L16" s="16"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="41.45" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>97</v>
+        <v>59</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -1328,12 +1401,12 @@
       <c r="L17" s="16"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="41.45" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>98</v>
+        <v>60</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -1347,12 +1420,12 @@
       <c r="L18" s="16"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="41.45" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>99</v>
+        <v>61</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -1368,11 +1441,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B19:M19"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B11:M11"/>
@@ -1386,6 +1454,11 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/MissingSheep.xlsx
+++ b/Stories/MissingSheep.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C2C5AC-A440-4501-9594-3C071B98C374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23257" windowHeight="12580"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,16 +213,10 @@
     <t>ACTION 4 EVENT SUMMARY</t>
   </si>
   <si>
-    <t>While you were focused on handling these minor affairs in your Kingdom, the disease that is currently affecting the neighbouring Kingdoms have starting to take effect within your own Kingdom.</t>
-  </si>
-  <si>
     <t>Having to allocate military personnel to such matters meant that you were lacking manpower to support the efforts in trying to maintain and contain the disease.</t>
   </si>
   <si>
     <t>Your decision to ignore this issue had caused it to escalate into riots and fighting between these farmers. This had also further accelerated the spread of the disease within the Kingdom.</t>
-  </si>
-  <si>
-    <t>By giving money to these farmers to quell the issue, you managed to settle this issue for now. However, it came at a cost of the Kingdom's treasury.</t>
   </si>
   <si>
     <t>Although it had sparked some concerns with the villagers, this was a good move as you managed to get rid the source of this issue. This also meant that you had more time to focus on the disease spreading within the city.</t>
@@ -320,12 +320,18 @@
   </si>
   <si>
     <t>I believe other neighbouring kingdoms do it this way as well.</t>
+  </si>
+  <si>
+    <t>While you were focused on handling these minor affairs in your Kingdom, the disease that is currently affecting the neighbouring Kingdoms have started to take effect within your own Kingdom.</t>
+  </si>
+  <si>
+    <t>By giving money to these farmers to quell the disturbance, you managed to resolve this matter for now. However, it came at a hugh cost of the Kingdom's treasury.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -561,93 +567,93 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -917,57 +923,57 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="20" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="20" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="23"/>
-    </row>
-    <row r="2" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="29"/>
+    </row>
+    <row r="2" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1006,59 +1012,59 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
-    </row>
-    <row r="5" spans="1:13" ht="256.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="35"/>
+    </row>
+    <row r="5" spans="1:13" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="E5" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>20</v>
@@ -1066,8 +1072,8 @@
       <c r="G5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>72</v>
+      <c r="H5" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>22</v>
@@ -1078,52 +1084,52 @@
       <c r="K5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="31" t="s">
-        <v>73</v>
+      <c r="L5" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="34"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="38"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="36"/>
-    </row>
-    <row r="8" spans="1:13" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:13" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1139,8 +1145,8 @@
       <c r="E8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="31" t="s">
-        <v>75</v>
+      <c r="F8" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>33</v>
@@ -1148,8 +1154,8 @@
       <c r="H8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="30" t="s">
-        <v>76</v>
+      <c r="I8" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>35</v>
@@ -1157,38 +1163,38 @@
       <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="38"/>
-    </row>
-    <row r="10" spans="1:13" ht="214" x14ac:dyDescent="0.25">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" ht="207" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>39</v>
@@ -1206,52 +1212,52 @@
         <v>42</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>43</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="41"/>
-    </row>
-    <row r="12" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>87</v>
+      <c r="B12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>45</v>
@@ -1266,55 +1272,55 @@
         <v>48</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>49</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="M12" s="42" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="41"/>
-    </row>
-    <row r="14" spans="1:13" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" spans="1:13" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>32</v>
@@ -1326,121 +1332,126 @@
         <v>55</v>
       </c>
       <c r="H14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="K14" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="L14" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="M14" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="M14" s="31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="42.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16" spans="1:13" ht="41.45" x14ac:dyDescent="0.3">
+      <c r="B15" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="43"/>
+    </row>
+    <row r="16" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
-    </row>
-    <row r="17" spans="1:13" ht="41.45" x14ac:dyDescent="0.3">
+      <c r="B16" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="43"/>
+    </row>
+    <row r="17" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="17"/>
-    </row>
-    <row r="18" spans="1:13" ht="41.45" x14ac:dyDescent="0.3">
+      <c r="B17" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="43"/>
+    </row>
+    <row r="18" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="17"/>
-    </row>
-    <row r="19" spans="1:13" ht="41.45" x14ac:dyDescent="0.3">
+      <c r="B18" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
+    </row>
+    <row r="19" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="17"/>
+      <c r="B19" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B11:M11"/>
@@ -1454,11 +1465,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/MissingSheep.xlsx
+++ b/Stories/MissingSheep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\DECO3801-Synergistics\Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C2C5AC-A440-4501-9594-3C071B98C374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F029BFBA-C696-46BD-9685-8C6661C2685A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Upfront</t>
   </si>
   <si>
-    <t>Farmers are reporting their sheep stolen</t>
-  </si>
-  <si>
     <t>ADVISOR OPINION</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>I need to gather the witnesses and investigate this incident.</t>
   </si>
   <si>
-    <t>I believe other officers are more capable to handle this incident.</t>
-  </si>
-  <si>
     <t>OUTCOME</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>Brute force is needed.</t>
   </si>
   <si>
-    <t>Soldiers will be expensive only make the problem worse</t>
-  </si>
-  <si>
     <t>I don’t mind as long as they stay away from me.</t>
   </si>
   <si>
@@ -147,39 +138,18 @@
     <t>I think it will get out of control. We must intervene at once.</t>
   </si>
   <si>
-    <t>We can hope that the villagers will work things out themselves</t>
-  </si>
-  <si>
-    <t>The farmers will be able to afford food through the winter if they don't have enough sheep</t>
-  </si>
-  <si>
-    <t>I'm sure this is just a misunderstanding and will pass.</t>
-  </si>
-  <si>
-    <t>I do not think the farmers are rational to handle this situation!</t>
-  </si>
-  <si>
     <t>ACTION 3</t>
   </si>
   <si>
-    <t>There is a risk the farmers will not use the money responsibly</t>
-  </si>
-  <si>
     <t>Money will help in the short term but not the long term.</t>
   </si>
   <si>
     <t>This is the only way we can ensure the production will be spared and the farmers will be kept happy.</t>
   </si>
   <si>
-    <t>We will likely recover the food loss, and we can hope the farmers will not hold a grudge.</t>
-  </si>
-  <si>
     <t>Some farmers will surely take advantage of this dispute.</t>
   </si>
   <si>
-    <t>I believe some farmers may take the money and flee to other Kingdoms.</t>
-  </si>
-  <si>
     <t>ACTION 4</t>
   </si>
   <si>
@@ -216,18 +186,6 @@
     <t>Having to allocate military personnel to such matters meant that you were lacking manpower to support the efforts in trying to maintain and contain the disease.</t>
   </si>
   <si>
-    <t>Your decision to ignore this issue had caused it to escalate into riots and fighting between these farmers. This had also further accelerated the spread of the disease within the Kingdom.</t>
-  </si>
-  <si>
-    <t>Although it had sparked some concerns with the villagers, this was a good move as you managed to get rid the source of this issue. This also meant that you had more time to focus on the disease spreading within the city.</t>
-  </si>
-  <si>
-    <t>In the kingdom over the past few weeks, over 2 sheep have been stolen according to one farmer. Sheep are an important livestock in the kingdom accounting for over 80% of the Kingdoms food source.</t>
-  </si>
-  <si>
-    <t>There have been some cases of robbery throughout the kingdom over the years.</t>
-  </si>
-  <si>
     <t>I don’t trust farmers; they are lazy and refuse to protect our kingdom.</t>
   </si>
   <si>
@@ -243,9 +201,6 @@
     <t>I could visit the neighbouring kingdoms to see if there are any leads to this incident.</t>
   </si>
   <si>
-    <t>A war has started between the farmers on the East and West of the kingdom, with both sides accusing the other of stealing all of their sheep. Things are starting to get violent and the villagers are frightened to go outside.</t>
-  </si>
-  <si>
     <t>These military interruptions in the village will cause the crop yield to drop this year!</t>
   </si>
   <si>
@@ -255,27 +210,9 @@
     <t xml:space="preserve">We should say this is a military training exercise to avoid attentions from neighbouring kingdoms. </t>
   </si>
   <si>
-    <t>This may cause a bad impression for other neighbouring kingdoms.</t>
-  </si>
-  <si>
     <t>There is a possibility things will escalate to violence.</t>
   </si>
   <si>
-    <t>The kingdom will eventually suffer from food shortage if this dispute is not resolved.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This may give an advantage for the farmers of the other regions to increase their wealth. </t>
-  </si>
-  <si>
-    <t>I believe the fight will escalate across other regions of the kingdom.</t>
-  </si>
-  <si>
-    <t>The neighbouring kingdoms could use this dispute as an excuse to question the Kingdom capabilities.</t>
-  </si>
-  <si>
-    <t>It could be set as an example if the farmers could resolve this dispute between themselves.</t>
-  </si>
-  <si>
     <t>Give them money. Money fixes everything.</t>
   </si>
   <si>
@@ -285,47 +222,110 @@
     <t>This is not a good idea; they will just spend it straight away on booze.</t>
   </si>
   <si>
-    <t>This may solve the dispute between the farmers but reduces the kingdom capital assets.</t>
-  </si>
-  <si>
-    <t>The neighbouring kingdoms may plan something if they know it.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Other neighbouring kingdoms may think that we always use money to solve everything. </t>
   </si>
   <si>
-    <t xml:space="preserve">I am more wary of how our people outside the kingdom would think about us. </t>
-  </si>
-  <si>
     <t>We may be able to stop violent outbreaks if we can identify the leadership.</t>
   </si>
   <si>
     <t>My colleagues and I believe this will minimise the likelihood of future conflict.</t>
   </si>
   <si>
-    <t xml:space="preserve">Provide free food and shelters for these prisoners will only be spending more of the kingdom's money. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farmers are important providers. They should re-educate to be productive instead of imprisoning them.
+    <t xml:space="preserve">Our allied kingdoms would never agree to an action such as this! </t>
+  </si>
+  <si>
+    <t>I believe other neighbouring kingdoms do it this way as well.</t>
+  </si>
+  <si>
+    <t>By giving money to these farmers to quell the disturbance, you managed to resolve this matter for now. However, it came at a high cost of the Kingdom's treasury.</t>
+  </si>
+  <si>
+    <t>Farmers are reporting their sheep stolen.</t>
+  </si>
+  <si>
+    <t>Over the past few weeks in the Kingdom, over 2 sheep have been stolen according to one farmer. Sheep are an important livestock in the Kingdom accounting for over 80% of the Kingdom's food source.</t>
+  </si>
+  <si>
+    <t>There have been some cases of robbery throughout the Kingdom over the years.</t>
+  </si>
+  <si>
+    <t>I believe other officers are more capable of handling this incident.</t>
+  </si>
+  <si>
+    <t>A war has started between the farmers on the East and West of the Kingdom, with both sides accusing the other of stealing all of their sheep. Things are starting to get violent and the villagers are frightened to go outside.</t>
+  </si>
+  <si>
+    <t>Soldiers will be expensive and only make the problem worse.</t>
+  </si>
+  <si>
+    <t>This may give other neighbouring kingdoms a bad impression.</t>
+  </si>
+  <si>
+    <t>We can hope that the villagers will work things out themselves.</t>
+  </si>
+  <si>
+    <t>The farmers will be able to afford food through the winter if they don't have enough sheep.</t>
+  </si>
+  <si>
+    <t>I'm sure this is just a misunderstanding that will pass.</t>
+  </si>
+  <si>
+    <t>The Kingdom will eventually suffer from food shortages if this dispute is not resolved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This may give the farmers of the other regions an advantage to increase their wealth. </t>
+  </si>
+  <si>
+    <t>I believe the fight will escalate across other regions of the Kingdom.</t>
+  </si>
+  <si>
+    <t>I do not think the farmers are rational enough to handle this situation!</t>
+  </si>
+  <si>
+    <t>The neighbouring kingdoms could use this dispute as an excuse to question our Kingdom's capabilities.</t>
+  </si>
+  <si>
+    <t>It could set an example if the farmers could resolve this dispute between themselves.</t>
+  </si>
+  <si>
+    <t>There is a risk the farmers will not use the money responsibly.</t>
+  </si>
+  <si>
+    <t>We will likely recover from the food loss, and we can hope the farmers will not hold a grudge.</t>
+  </si>
+  <si>
+    <t>This may solve the dispute between the farmers but reduces the Kingdom's financial capital.</t>
+  </si>
+  <si>
+    <t>I believe some farmers may take the money and flee to other kingdoms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am more wary of how people outside the Kingdom would think about us. </t>
+  </si>
+  <si>
+    <t>The neighbouring kingdoms may plan something if they find out about it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Providing free food and shelters for these prisoners will only be spending more of the Kingdom's money. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farmers are important providers. They should be re-educated to be productive instead of imprisoning them.
 </t>
   </si>
   <si>
-    <t>Other farmers may revolt against the kingdom if we put them behind the bars without concrete evidences.</t>
-  </si>
-  <si>
-    <t>The witnesses report could be served as a corroborative evidence to imprison the troublemakers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Our allied kingdoms would never agree to an action such as this! </t>
-  </si>
-  <si>
-    <t>I believe other neighbouring kingdoms do it this way as well.</t>
-  </si>
-  <si>
-    <t>While you were focused on handling these minor affairs in your Kingdom, the disease that is currently affecting the neighbouring Kingdoms have started to take effect within your own Kingdom.</t>
-  </si>
-  <si>
-    <t>By giving money to these farmers to quell the disturbance, you managed to resolve this matter for now. However, it came at a hugh cost of the Kingdom's treasury.</t>
+    <t>Other farmers may revolt against the Kingdom if we put them behind bars without concrete evidence.</t>
+  </si>
+  <si>
+    <t>The witnesses' reports could be used as corroborative evidence to imprison the troublemakers.</t>
+  </si>
+  <si>
+    <t>While you were focused on handling these minor affairs in your Kingdom, the disease that is currently affecting the neighbouring kingdoms have started to take effect within your own Kingdom.</t>
+  </si>
+  <si>
+    <t>Your decision to ignore this issue had caused it to escalate into riots and fighting between these farmers. This has also further accelerated the spread of the disease within the Kingdom.</t>
+  </si>
+  <si>
+    <t>Although it had sparked some concerns with the villagers, this was a good move as you managed to get rid of the source of this issue. This also meant that you had more time to focus on the disease spreading within the city.</t>
   </si>
 </sst>
 </file>
@@ -579,6 +579,11 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -645,11 +650,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -934,7 +934,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:M19"/>
+      <selection activeCell="B16" sqref="B16:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,30 +948,30 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="28" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="28" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="28" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="29"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1014,444 +1014,439 @@
     </row>
     <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
+        <v>46</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
     </row>
     <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="35"/>
+      <c r="B4" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="L5" s="16" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="38"/>
+        <v>24</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
+        <v>25</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="F8" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="I8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="L8" s="15" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="24"/>
-    </row>
-    <row r="10" spans="1:13" ht="207" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="1:13" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
+        <v>37</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
+        <v>41</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="30"/>
     </row>
     <row r="14" spans="1:13" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="43"/>
+        <v>47</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="43"/>
+        <v>48</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="43"/>
+        <v>49</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
     </row>
     <row r="18" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="43"/>
+        <v>50</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="21"/>
     </row>
     <row r="19" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="43"/>
+        <v>51</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B19:M19"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B11:M11"/>
@@ -1465,6 +1460,11 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/MissingSheep.xlsx
+++ b/Stories/MissingSheep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\DECO3801-Synergistics\Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F029BFBA-C696-46BD-9685-8C6661C2685A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A2B8F9-32F1-4F55-B90A-FBAAD6B3AE31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>Farmers have reported 6 missing sheep from the West Region and 15 from the East. I didn't know the East had that many sheep.</t>
   </si>
   <si>
-    <t>I did not receive any actual damage report from the farmers yet.</t>
-  </si>
-  <si>
     <t>The recent environmental report does not indicate any ongoing abnormalities.</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>Money will help in the short term but not the long term.</t>
   </si>
   <si>
-    <t>This is the only way we can ensure the production will be spared and the farmers will be kept happy.</t>
-  </si>
-  <si>
     <t>Some farmers will surely take advantage of this dispute.</t>
   </si>
   <si>
@@ -207,9 +201,6 @@
     <t>This may upset the economic balance of the lower class.</t>
   </si>
   <si>
-    <t xml:space="preserve">We should say this is a military training exercise to avoid attentions from neighbouring kingdoms. </t>
-  </si>
-  <si>
     <t>There is a possibility things will escalate to violence.</t>
   </si>
   <si>
@@ -237,9 +228,6 @@
     <t>I believe other neighbouring kingdoms do it this way as well.</t>
   </si>
   <si>
-    <t>By giving money to these farmers to quell the disturbance, you managed to resolve this matter for now. However, it came at a high cost of the Kingdom's treasury.</t>
-  </si>
-  <si>
     <t>Farmers are reporting their sheep stolen.</t>
   </si>
   <si>
@@ -249,9 +237,6 @@
     <t>There have been some cases of robbery throughout the Kingdom over the years.</t>
   </si>
   <si>
-    <t>I believe other officers are more capable of handling this incident.</t>
-  </si>
-  <si>
     <t>A war has started between the farmers on the East and West of the Kingdom, with both sides accusing the other of stealing all of their sheep. Things are starting to get violent and the villagers are frightened to go outside.</t>
   </si>
   <si>
@@ -291,9 +276,6 @@
     <t>There is a risk the farmers will not use the money responsibly.</t>
   </si>
   <si>
-    <t>We will likely recover from the food loss, and we can hope the farmers will not hold a grudge.</t>
-  </si>
-  <si>
     <t>This may solve the dispute between the farmers but reduces the Kingdom's financial capital.</t>
   </si>
   <si>
@@ -304,9 +286,6 @@
   </si>
   <si>
     <t>The neighbouring kingdoms may plan something if they find out about it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Providing free food and shelters for these prisoners will only be spending more of the Kingdom's money. </t>
   </si>
   <si>
     <t xml:space="preserve">Farmers are important providers. They should be re-educated to be productive instead of imprisoning them.
@@ -319,13 +298,34 @@
     <t>The witnesses' reports could be used as corroborative evidence to imprison the troublemakers.</t>
   </si>
   <si>
-    <t>While you were focused on handling these minor affairs in your Kingdom, the disease that is currently affecting the neighbouring kingdoms have started to take effect within your own Kingdom.</t>
-  </si>
-  <si>
     <t>Your decision to ignore this issue had caused it to escalate into riots and fighting between these farmers. This has also further accelerated the spread of the disease within the Kingdom.</t>
   </si>
   <si>
     <t>Although it had sparked some concerns with the villagers, this was a good move as you managed to get rid of the source of this issue. This also meant that you had more time to focus on the disease spreading within the city.</t>
+  </si>
+  <si>
+    <t>By giving money to these farmers to quell the disturbance, you managed to resolve this matter for now. However, it came at a high cost to the Kingdom's treasury.</t>
+  </si>
+  <si>
+    <t>While you were focused on handling these minor affairs in your Kingdom, the disease that is currently affecting the neighbouring kingdoms has started to take effect within your own Kingdom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Providing free food and shelter for prisoners will only be spending more of the Kingdom's money. </t>
+  </si>
+  <si>
+    <t>This is the only way we can ensure that food production will be spared and the farmers will be kept happy.</t>
+  </si>
+  <si>
+    <t>We will likely recover from the food loss, and we can hope the farmers will not hold a grudge against each other.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We should say this is a military training exercise to avoid attention from neighbouring kingdoms. </t>
+  </si>
+  <si>
+    <t>I did not receive any actual damage reports from the farmers yet.</t>
+  </si>
+  <si>
+    <t>I believe other advisors are more capable of handling this incident.</t>
   </si>
 </sst>
 </file>
@@ -579,77 +579,77 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:M16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,30 +948,30 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="31" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="31" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="31" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="32"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1014,57 +1014,57 @@
     </row>
     <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
+        <v>44</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38"/>
+      <c r="B4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:13" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>19</v>
@@ -1073,380 +1073,385 @@
         <v>20</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="L5" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="41"/>
+        <v>23</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="24"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:13" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="L8" s="15" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="27"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="24"/>
     </row>
     <row r="10" spans="1:13" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="30"/>
+        <v>36</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="J12" s="11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="30"/>
+        <v>39</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="27"/>
     </row>
     <row r="14" spans="1:13" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="43"/>
     </row>
     <row r="16" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="43"/>
     </row>
     <row r="17" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="43"/>
     </row>
     <row r="18" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
     </row>
     <row r="19" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B11:M11"/>
@@ -1460,11 +1465,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
